--- a/Vulnerability_examples/VulnerabilityDescription.xlsx
+++ b/Vulnerability_examples/VulnerabilityDescription.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Duikang_dataset\VulHunter\Vulnerability_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SmartContract\Github\VulHunter\Vulnerability_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB00BD07-31BF-47C5-A8DA-466FAE77F962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DDC311-5CC2-44F7-A7B8-124DEB3DBED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="188">
   <si>
     <t>suicidal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,393 +35,813 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hardcoded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array-instead-bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erc20-throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costly-loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send-transfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parity-multisig-bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uninitialized-state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arbitrary-send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlled-delegatecall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reentrancy-eth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorrect-equality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unchecked-lowlevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calls-loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erc20-indexed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer-overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locked-ether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean-equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlled-array-length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if anyone can break the contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check unused state variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Transfe to replace Send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check for uninitialized state variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check comparison with boolean constant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the legitimacy of the address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check low-level calls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the external call in the loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check for too expensive loops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if Ether can be sent to any address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length is allocated directly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check for multi-signature vulnerabilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check unreviewed send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check for uncensored low-level calls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the dangerous use of tx.origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check for wrong ERC20 interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the wrong ERC721 interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check for misuse of Boolean constants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the strict equality of danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due to lack of access control or insufficient access control, malicious parties can self-destruct the contract. Calling selfdestruct/suicide lacks protection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uninitialized state variables can lead to intentional or unintentional vulnerabilities.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expensive operations within the loop.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unused variables are allowed in Solidity, and they do not pose direct security issues. The best practice is to avoid them as much as possible: resulting in increased calculations (and unnecessary gas consumption) means errors or incorrect data structures, and usually means poor code quality leads to code noise and reduces code readability.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The recommended way to perform the check of Ether payment is addr.transfer(x). If the transfer fails, an exception is automatically raised.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The call to the function that sends Ether to an arbitrary address has not been reviewed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect direct allocation of array length.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delegate the call or call code to an address controlled by the user. The address of Delegatecall is not necessarily trusted, it is still a problem of access control, and the address is not checked.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-signature vulnerability. Hackers can use the initWallet function to call the initMultiowned function to obtain the identity of the contract owner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A reentrancy error was detected. This is the reentry of ether. Through re-entry, the account balance can be maliciously withdrawn, resulting in losses. Do not report re-reporting that does not involve Ether (please refer to "reentrancy-no-eth")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functions with public visibility modifiers are not called internally. Changing the visibility level to an external level can improve the readability of the code. In addition, in many cases, functions that use external visibility modifiers cost less gas than functions that use public visibility modifiers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the comparison of Boolean constants. There is no need to compare with true and false, so it's superfluous (gas consumption).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte[] can be converted to bytes to save gas resources.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The contract contains an unknown address, which may be used for some malicious activities. Need to check the hard-coded address and its purpose. The address length is prone to errors, and the length of the address is not enough, it will not report an error, so it is very dangerous to write a mistake. Here is an identification.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label low-level methods such as call, delegatecall, and callcode, because these methods are easily exploited by attackers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The function of the ERC-20 token standard should be thrown in the following special circumstances: if there are not enough tokens in the _from account balance to spend, it should be thrown; unless the _from account deliberately authorizes the sending of messages through some mechanism Otherwise, transferFrom should be thrown.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The address parameters of the "Transfer" and "Approval" events of the ERC-20 token standard shall include indexed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is a strict comparison with block.timestamp or now in the contract, and miners can benefit from block.timestamp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When an arithmetic operation reaches the maximum or minimum size of the type, overflow/underflow will occur. For example, if a number is stored in the uint8 type, it means that the number is stored as an 8-bit unsigned number, ranging from 0 to 2^8-1. In computer programming, when an arithmetic operation attempts to create a value, an integer overflow occurs, and the value can be represented by a given number of bits-greater than the maximum value or less than the minimum value.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check that the key access control ETH is transmitted cyclically. If at least one address cannot receive ETH (for example, it is a contract with a default fallback function), the entire transaction will be restored. Loss of parameters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contracts usually require access to time values ​​to perform certain types of functions. block.number can let you know the current time or time increment, but in most cases it is not safe to use them. block.number The block time of Ethereum is usually about 14 seconds, so the time increment between blocks can be predicted. However, the lockout time is not fixed and may change due to various reasons (for example, fork reorganization and difficulty coefficient). Since the block time is variable, block.number should not rely on accurate time calculations. The ability to generate random numbers is very useful in various applications. An obvious example is a gambling DApp, where a pseudo-random number generator is used to select the winner. However, creating a sufficiently powerful source of randomness in Ethereum is very challenging. Using blockhash, block.difficulty and other areas is also unsafe because they are controlled by miners. If the stakes are high, the miner can mine a large number of blocks by renting hardware in a short period of time, select the block that needs to obtain the block hash value to win, and then discard all other blocks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum is a very resource-constrained environment. The price of each calculation step is several orders of magnitude higher than the price of the centralized provider. In addition, Ethereum miners impose limits on the total amount of natural gas consumed in the block. If array.length is large enough, the function exceeds the gas limit, and the transaction that calls the function will never be confirmed. If external participants influence array.length, this will become a security issue.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Similar to unchecked-lowlevel, it is explained here that the return value of send and Highlevelcall is not checked.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The low-level call to the external contract failed, and the return value was not judged. When sending ether at the same time, please check the return value and handle the error.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If a legitimate user interacts with a malicious contract, the protection based on tx.origin will be abused by the malicious contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect abuse of Boolean constants. Bool variable is used incorrectly, here is the operation of bool variable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A contract programmed to receive ether (with the payable logo) should implement the method of withdrawing ether, that is, call transfer (recommended), send or call.value at least once.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using strict equality (== and !=), an attacker can easily manipulate these equality. Specifically: the opponent can forcefully send Ether to any address through selfdestruct() or through mining, thereby invalidating the strict judgment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The return value of the "ERC721" function is incorrect. Interacting with these functions, the contract of solidity version&gt; 0.4.22 will not be executed because of the lack of return value.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The return value of the "ERC20" function is incorrect. Interacting with these functions, the contract of solidity version&gt; 0.4.22 will not be executed because of the lack of return value.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Severity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The delegate address out of control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re-entry vulnerabilities (Ethereum theft)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether the contract ether is locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The dangerous use of block.timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERC20 event parameter is missing indexed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERC20 throws an exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The byte array can be replaced with bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public functions can be declared as external</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expensive operations in the loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hazardous use variables (block.number etc.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mainly about the receiver's exception. A person who is running an Ethereum node can tell which transactions are going to occur before they are finalized.A race condition vulnerability occurs when code depends on the order of the transactions submitted to it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction sequence dependence for receivers/ethers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check for integer overflow/overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenarios_supplement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommendation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function withdrawBalance(){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// send userBalance[msg.sender] Ether to msg.sender&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// if mgs.sender is a contract, it will call its fallback function&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;if( ! (msg.sender.call.value(userBalance[msg.sender])() ) ){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;throw;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;userBalance[msg.sender] = 0;&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob used the reentrance vulnerability to call `withdrawBalance` multiple times and withdrew more than he originally deposited into the contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can adopt check-effects-interactions mode.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract A {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;uint[] testArray; // dynamic size array&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function f(uint usersCount) public {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;testArray.length = usersCount;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function g(uint userIndex, uint val) public {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;testArray[userIndex] = val;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract storage/state variables are indexed by 256-bit integers. Users can set the array length to 2 ** 256-1 to index all storage slots. In the above example, you can call function f to set the length of the array, and then call function g to control any storage slots needed. Please note that the storage slots here are indexed by the hash of the indexer. Nonetheless, all storage will still be accessible and can be controlled by an attacker.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is not allowed to set the length of the array directly; instead, choose to add values as needed. Otherwise, please check the contract thoroughly to ensure that the user-controlled variables cannot reach the array length allocation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract Suicidal{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function kill() public{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;selfdestruct(msg.sender);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob calls the "kill" function and breaks the contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protect access to all sensitive functions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract Delegatecall{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function delegate(address to, bytes data){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;to.delegatecall(data);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob calls `delegate` and delegates the execution of the malicious contract to him. As a result, Bob withdraws the funds from the contract and destroys the contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoid using `delegatecall`. If you use it, please only target trusted destinations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract ArbitrarySend{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address destination;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function setDestination(){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;destination = msg.sender;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function withdraw() public{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;destination.transfer(this.balance);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob calls setDestination and withdraw, and as a result, he withdraws the balance of the contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ensure that no user can withdraw unauthorized funds.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pragma solidity ^0.4.5;&lt;br/&gt;contract StandardToken is ERC20, BasicToken {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function approve(address _spender, uint256 _value) public returns (bool) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;allowed[msg.sender][_spender] = _value;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;Approval(msg.sender, _spender, _value);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;return true;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;...&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before performing the approve change, reset the value to zero first, and then perform the change operation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract Uninitialized{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address destination;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function transfer() payable public{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;destination.transfer(msg.value);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob calls "transfer". As a result, the ether is sent to the address "0x0" and is lost.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize all variables. If you want to initialize a variable to zero, set it explicitly to zero.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract WalletLibrary_bad is WalletEvents {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function initWallet(address[] _owners, uint _required, uint _daylimit) { &lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;initDaylimit(_daylimit); &lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;initMultiowned(_owners, _required);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}  // kills the contract sending everything to `_to`.&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function initMultiowned(address[] _owners, uint _required) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;m_numOwners = _owners.length + 1;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;m_owners[1] = uint(msg.sender);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;m_ownerIndex[uint(msg.sender)] = 1; &lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;for (uint i = 0; i &lt; _owners.length; ++i)&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;m_owners[2 + i] = uint(_owners[i]);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;m_ownerIndex[uint(_owners[i])] = 2 + i;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;m_required = _required;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitWallet, initDaylimit and initMultiowned add internal limited types to prohibit external calls: or if only_uninitMultiowned (m_numOwners) is detected in initMultiowned, no error will occur. The number of initializations can also be reviewed by judging m_numOwners.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract Crowdsale{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function fund_reached() public returns(bool){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;return this.balance == 100 ether;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crowdsale relies on fund_reached to know when to stop the sale of tokens. Bob sends 0.1 ether. As a result, fund_reached is always false, and crowdsale is always true.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not use strict equality to determine whether an account has enough ether or tokens.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract Intergeroverflow{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function bad() {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;uint a;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;uint b;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;uint c = a + b;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Safemath to perform integer arithmetic or verify calculated values.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract MyConc{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function my_func(address payable dst) public payable{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;dst.call.value(msg.value)("");&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The return value of the low-level call is not checked, so if the call fails, the ether will be locked in the contract. If you use low-level calls to block block operations, consider logging the failed calls.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make sure to check or record the return value of low-level calls.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx-origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract TxOrigin {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address owner = msg.sender;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function bug() {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;require(tx.origin == owner);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob is the owner of TxOrigin. Bob calls Eve's contract. Eve's contract is called TxOrigin and bypasses the protection of tx.origin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not use `tx.origin` for authorization.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pragma solidity 0.4.24;&lt;br/&gt;contract Locked{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function receive() payable public{}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Ether sent to "Locked" will be lost.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete payable attributes or add withdrawal functions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unchecked-send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract MyConc{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function my_func(address payable dst) public payable{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;dst.send(msg.value);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The return value of send is not checked, so if the send fails, the ether will be locked in the contract. If you use send to prevent block operations, please consider logging failed send.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make sure to check or record the return value of send.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean-cst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>contract A {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function f(uint x) public {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;if (false) { // bad!&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function g(bool b) public returns (bool) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;return (b || true); // bad!&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Boolean constants in the code have very few legal uses. Other uses (as conditions in complex expressions) indicate the persistence of errors or error codes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verify and simplify the conditions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erc721-interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract Token{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function ownerOf(uint256 _tokenId) external view returns (bool);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;//...&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token.ownerOf does not return the expected boolean value. Bob deploys the token. Alice creates a contract to interact with, but uses the correct `ERC721` interface implementation. Alice's contract cannot interact with Bob's contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set appropriate return values and vtypes for the defined </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʻ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERC721` function.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>erc20-interface</t>
-  </si>
-  <si>
-    <t>erc721-interface</t>
-  </si>
-  <si>
-    <t>boolean-cst</t>
-  </si>
-  <si>
-    <t>tx-origin</t>
-  </si>
-  <si>
-    <t>unchecked-send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract Token{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function transfer(address to, uint value) external;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;//...&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token.transfer does not return the expected boolean value. Bob deploys the token. Alice creates a contract to interact with, but uses the correct `ERC20` interface implementation. Alice's contract cannot interact with Bob's contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set appropriate return values and vtypes for the defined </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ʻ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERC20` function.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pragma solidity 0.4.24;&lt;br/&gt;contract PriceOracle {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address internal owner;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address[] public subscribers;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;mapping(address =&gt; uint) balances;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;uint internal constant PRICE = 10**15;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function subscribe() payable external{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;subscribers.push(msg.sender);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;balances[msg.sender] += msg.value;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function setPrice(uint price) external {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;require(msg.sender == owner);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;bytes memory data = abi.encodeWithSelector(SIGNATURE, price);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;for (uint i = 0; i &lt; subscribers.length; i++) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;if(balances[subscribers[i]] &gt;= PRICE) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;balances[subscribers[i]] -= PRICE;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;subscribers[i].call.gas(50000)(data);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please check the dynamic array of the loop carefully. If you find it can be exploited by an attacker, please change it to prevent the contract from executing too many loops and causing gas overflow and rollback.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract Timestamp{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;event Time(uint);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;modifier onlyOwner {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;require(block.timestamp == 0);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;_;  &lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function bad0() external{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;require(block.timestamp == 0);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob's contract relies on the randomness of block.timestamp. Eve is a miner who manipulates block.timestamp to take advantage of Bob's contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoid relying on block.timestamp.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>block-other-parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract Otherparameters{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;event Number(uint);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;event Coinbase(address);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;event Difficulty(uint);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;event Gaslimit(uint);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function bad0() external{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;require(block.number == 20);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;require(block.coinbase == msg.sender);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;require(block.difficulty == 20);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;require(block.gaslimit == 20);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The randomness of Bob's contract depends on block.number and so on. Eve is a miner who manipulates block.number and so on to use Bob's contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoid relying on block.number and other data that can be manipulated by miners.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract CallsInLoop{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address[] destinations;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;constructor(address[] newDestinations) public{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;destinations = newDestinations;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function bad() external{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;for (uint i=0; i &lt; destinations.length; i++){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;destinations[i].transfer(i);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If one of the destination addresses is restored by the rollback function, bad() will restore all, so all the work is wasted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try to avoid calling external contracts in the loop, and you can use the pull over push strategy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>low-level-calls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract Sender {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address owner;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;modifier onlyceshi() {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;owner.callcode(bytes4(keccak256("inc()")));&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;_;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function send(address _receiver) payable external {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;_receiver.call.value(msg.value).gas(7777)("");&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function sendceshi(address _receiver) payable external {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;if(_receiver.call.value(msg.value).gas(7777)("")){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;revert();&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoid low-level calls. Check whether the call is successful. If the call is to sign a contract, please check whether the code exists.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract ERC20Bad {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;event Transfer(address from, address to, uint value);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;event Approval(address owner, address spender, uint value);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>According to the definition of the ERC20 specification, the first two parameters of the Transfer and Approval events should carry the indexed keyword. If these keywords are not included, the parameter data will be excluded from the bloom filter of the transaction/block. Therefore, external tools searching for these parameters may ignore them and fail to index the logs in this token contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>According to the ERC20 specification, the indexed keyword is added to the event parameter of the corresponding keyword.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract SomeToken {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;mapping(address =&gt; uint256) balances;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;event Transfer(address indexed _from, address indexed _to, uint256 _value);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function transfer(address _to, uint _value) public returns (bool) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;if (_value &gt; balances[msg.sender] || _value &gt; balances[_to] + _value) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;return false;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;balances[msg.sender] = balances[msg.sender] - _value;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;balances[_to] = balances[_to] + _value;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;emit Transfer(msg.sender, _to, _value);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;return true;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add the corresponding throw method to ERC-20 tokens.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract C {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function f(uint a, uint b) pure returns (address) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address public multisig = 0xf64B584972FE6055a770477670208d737Fff282f;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;return multisig;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check carefully whether the address is wrong, and if there is an error, please take the time to correct it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pragma solidity 0.4.24;&lt;br/&gt;contract C {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;byte[] someVariable;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;...&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replacing byte[] with bytes can save gas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>unused-state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract A{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address unused;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address public unused2;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address private unused3;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address unused4;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address used;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function ceshi1 () external{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;unused3 = address(0);&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete unused state variables.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costly-operations-loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract CostlyOperationsInLoop{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;uint loop_count = 100;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;uint state_variable=0;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function bad() external{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;for (uint i=0; i &lt; loop_count; i++){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;state_variable++;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function good() external{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;  uint local_variable = state_variable;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;  for (uint i=0; i &lt; loop_count; i++){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;local_variable++;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;  }&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;  state_variable = local_variable;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due to the expensive SSTOREs, the incremental state variables in the loop will generate a large amount of gas, which may result in insufficient gas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This test is a state variable in the loop. The state variable costs more gas than the local variable. This was not tested before, and only length was tested before.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!addr.send(42 ether)) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;revert();&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is safer to use transfer instead of send.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract A {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function f(bool x) public {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;if (x == true) { // bad!&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;   // ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;// ...&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean constants can be used directly without comparison with true or false.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete the equation equal to the Boolean constant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>external-function</t>
-  </si>
-  <si>
-    <t>hardcoded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array-instead-bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erc20-throw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costly-loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send-transfer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parity-multisig-bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uninitialized-state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arbitrary-send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlled-delegatecall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reentrancy-eth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>incorrect-equality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unchecked-lowlevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calls-loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>erc20-indexed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer-overflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>locked-ether</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean-equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controlled-array-length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costly-operations-loop</t>
-  </si>
-  <si>
-    <t>Check if anyone can break the contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check unused state variables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check Transfe to replace Send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check for uninitialized state variables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check comparison with boolean constant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the legitimacy of the address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check low-level calls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the external call in the loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check for too expensive loops</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check if Ether can be sent to any address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length is allocated directly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check for multi-signature vulnerabilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check unreviewed send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check for uncensored low-level calls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the dangerous use of tx.origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check for wrong ERC20 interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the wrong ERC721 interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check for misuse of Boolean constants</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the strict equality of danger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Due to lack of access control or insufficient access control, malicious parties can self-destruct the contract. Calling selfdestruct/suicide lacks protection.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uninitialized state variables can lead to intentional or unintentional vulnerabilities.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expensive operations within the loop.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unused variables are allowed in Solidity, and they do not pose direct security issues. The best practice is to avoid them as much as possible: resulting in increased calculations (and unnecessary gas consumption) means errors or incorrect data structures, and usually means poor code quality leads to code noise and reduces code readability.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The recommended way to perform the check of Ether payment is addr.transfer(x). If the transfer fails, an exception is automatically raised.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The call to the function that sends Ether to an arbitrary address has not been reviewed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detect direct allocation of array length.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delegate the call or call code to an address controlled by the user. The address of Delegatecall is not necessarily trusted, it is still a problem of access control, and the address is not checked.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multi-signature vulnerability. Hackers can use the initWallet function to call the initMultiowned function to obtain the identity of the contract owner.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A reentrancy error was detected. This is the reentry of ether. Through re-entry, the account balance can be maliciously withdrawn, resulting in losses. Do not report re-reporting that does not involve Ether (please refer to "reentrancy-no-eth")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Functions with public visibility modifiers are not called internally. Changing the visibility level to an external level can improve the readability of the code. In addition, in many cases, functions that use external visibility modifiers cost less gas than functions that use public visibility modifiers.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the comparison of Boolean constants. There is no need to compare with true and false, so it's superfluous (gas consumption).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte[] can be converted to bytes to save gas resources.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The contract contains an unknown address, which may be used for some malicious activities. Need to check the hard-coded address and its purpose. The address length is prone to errors, and the length of the address is not enough, it will not report an error, so it is very dangerous to write a mistake. Here is an identification.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Label low-level methods such as call, delegatecall, and callcode, because these methods are easily exploited by attackers.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The function of the ERC-20 token standard should be thrown in the following special circumstances: if there are not enough tokens in the _from account balance to spend, it should be thrown; unless the _from account deliberately authorizes the sending of messages through some mechanism Otherwise, transferFrom should be thrown.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The address parameters of the "Transfer" and "Approval" events of the ERC-20 token standard shall include indexed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There is a strict comparison with block.timestamp or now in the contract, and miners can benefit from block.timestamp.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When an arithmetic operation reaches the maximum or minimum size of the type, overflow/underflow will occur. For example, if a number is stored in the uint8 type, it means that the number is stored as an 8-bit unsigned number, ranging from 0 to 2^8-1. In computer programming, when an arithmetic operation attempts to create a value, an integer overflow occurs, and the value can be represented by a given number of bits-greater than the maximum value or less than the minimum value.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check that the key access control ETH is transmitted cyclically. If at least one address cannot receive ETH (for example, it is a contract with a default fallback function), the entire transaction will be restored. Loss of parameters.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contracts usually require access to time values ​​to perform certain types of functions. block.number can let you know the current time or time increment, but in most cases it is not safe to use them. block.number The block time of Ethereum is usually about 14 seconds, so the time increment between blocks can be predicted. However, the lockout time is not fixed and may change due to various reasons (for example, fork reorganization and difficulty coefficient). Since the block time is variable, block.number should not rely on accurate time calculations. The ability to generate random numbers is very useful in various applications. An obvious example is a gambling DApp, where a pseudo-random number generator is used to select the winner. However, creating a sufficiently powerful source of randomness in Ethereum is very challenging. Using blockhash, block.difficulty and other areas is also unsafe because they are controlled by miners. If the stakes are high, the miner can mine a large number of blocks by renting hardware in a short period of time, select the block that needs to obtain the block hash value to win, and then discard all other blocks.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum is a very resource-constrained environment. The price of each calculation step is several orders of magnitude higher than the price of the centralized provider. In addition, Ethereum miners impose limits on the total amount of natural gas consumed in the block. If array.length is large enough, the function exceeds the gas limit, and the transaction that calls the function will never be confirmed. If external participants influence array.length, this will become a security issue.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Similar to unchecked-lowlevel, it is explained here that the return value of send and Highlevelcall is not checked.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The low-level call to the external contract failed, and the return value was not judged. When sending ether at the same time, please check the return value and handle the error.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If a legitimate user interacts with a malicious contract, the protection based on tx.origin will be abused by the malicious contract.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detect abuse of Boolean constants. Bool variable is used incorrectly, here is the operation of bool variable.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A contract programmed to receive ether (with the payable logo) should implement the method of withdrawing ether, that is, call transfer (recommended), send or call.value at least once.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Using strict equality (== and !=), an attacker can easily manipulate these equality. Specifically: the opponent can forcefully send Ether to any address through selfdestruct() or through mining, thereby invalidating the strict judgment.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The return value of the "ERC721" function is incorrect. Interacting with these functions, the contract of solidity version&gt; 0.4.22 will not be executed because of the lack of return value.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The return value of the "ERC20" function is incorrect. Interacting with these functions, the contract of solidity version&gt; 0.4.22 will not be executed because of the lack of return value.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Severity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The delegate address out of control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Re-entry vulnerabilities (Ethereum theft)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whether the contract ether is locked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The dangerous use of block.timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERC20 event parameter is missing indexed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERC20 throws an exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The byte array can be replaced with bytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Public functions can be declared as external</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expensive operations in the loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hazardous use variables (block.number etc.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mainly about the receiver's exception. A person who is running an Ethereum node can tell which transactions are going to occur before they are finalized.A race condition vulnerability occurs when code depends on the order of the transactions submitted to it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transaction sequence dependence for receivers/ethers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check for integer overflow/overflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract ContractWithFunctionCalledSuper {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function callWithSuper() {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;uint256 i = 0;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The callWithSuper() function can be declared as external visibility.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use the "external" attribute for functions that are never called from within the contract.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +849,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +879,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -774,73 +1207,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F210860-C511-44C3-B31A-B403AA9D5E1C}">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="181" customWidth="1"/>
-    <col min="6" max="6" width="86.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="47.125" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="7" max="7" width="57" customWidth="1"/>
+    <col min="8" max="8" width="237.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -851,486 +1313,717 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.2">
